--- a/CREATE/rows_with_M_dam.xlsx
+++ b/CREATE/rows_with_M_dam.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t xml:space="preserve">excel_row</t>
   </si>
@@ -59,130 +59,115 @@
     <t xml:space="preserve">dam_sw_id</t>
   </si>
   <si>
-    <t xml:space="preserve">3235</t>
+    <t xml:space="preserve">3403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73512_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALBINO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72905_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72801_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHSM0517B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LBRB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73505_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73309_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73347_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHSM0561B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73504_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRN HOOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72945_1</t>
   </si>
   <si>
     <t xml:space="preserve">72797_1</t>
   </si>
   <si>
-    <t xml:space="preserve">BROWN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72595_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72591_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHSM0424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHSM0330</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHSF0324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3238</t>
+    <t xml:space="preserve">WHSF0507B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTRT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73511_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLACK HOOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73337_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73332_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHSF0551B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73546_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72794_2</t>
   </si>
   <si>
     <t xml:space="preserve">72790_1</t>
   </si>
   <si>
-    <t xml:space="preserve">BLACK HOOD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72620_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72665_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHSM0427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHSM0339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHSF0327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72801_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALBINO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72527_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72667_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHSM0433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHSM0303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHSF0333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73332_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73330_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73331_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHSM0451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73347_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLACK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73346_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72292_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHSM0461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LM</t>
+    <t xml:space="preserve">WHSF0516B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTRB</t>
   </si>
 </sst>
 </file>
@@ -593,22 +578,18 @@
       <c r="M2" t="s">
         <v>23</v>
       </c>
-      <c r="N2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" t="s">
-        <v>25</v>
-      </c>
+      <c r="N2"/>
+      <c r="O2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -617,133 +598,125 @@
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J3"/>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" t="s">
-        <v>33</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="N3"/>
+      <c r="O3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
         <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J4"/>
       <c r="K4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L4" t="s">
         <v>22</v>
       </c>
       <c r="M4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" t="s">
-        <v>42</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="N4"/>
+      <c r="O4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J5"/>
       <c r="K5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L5" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="M5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N5"/>
       <c r="O5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J6"/>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="M6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N6"/>
       <c r="O6"/>
